--- a/_mustSupport.xlsx
+++ b/_mustSupport.xlsx
@@ -1828,7 +1828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,19 +1858,19 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.extension:signature</t>
+          <t>QuestionnaireResponse.identifier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.extension:completionMode</t>
+          <t>QuestionnaireResponse.basedOn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1882,43 +1882,43 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.identifier</t>
+          <t>QuestionnaireResponse.partOf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.basedOn</t>
+          <t>QuestionnaireResponse.questionnaire</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.partOf</t>
+          <t>QuestionnaireResponse.status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.questionnaire</t>
+          <t>QuestionnaireResponse.subject</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1930,19 +1930,19 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.questionnaire.extension:questionnaireDisplay</t>
+          <t>QuestionnaireResponse.encounter</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.questionnaire.extension:url</t>
+          <t>QuestionnaireResponse.authored</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.status</t>
+          <t>QuestionnaireResponse.author</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1966,31 +1966,31 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.subject</t>
+          <t>QuestionnaireResponse.source</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.encounter</t>
+          <t>QuestionnaireResponse.item</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.authored</t>
+          <t>QuestionnaireResponse.item.linkId</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.author</t>
+          <t>QuestionnaireResponse.item.text</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2014,19 +2014,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.source</t>
+          <t>QuestionnaireResponse.item.answer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.item</t>
+          <t>QuestionnaireResponse.item.answer.value[x]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2038,118 +2038,22 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.item.extension:itemMedia</t>
+          <t>QuestionnaireResponse.item.answer.item</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.item.extension:ItemSignature</t>
+          <t>QuestionnaireResponse.item.item</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.linkId</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.text</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.extension:itemAnswerMedia</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.extension:ordinalValue</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.value[x]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.item</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.item</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -3227,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3310,20 +3214,24 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Patient.address.extension:addressKey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Patient.address.line</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Patient.address.line</t>
+          <t>Patient.address.postalCode</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3340,7 +3248,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Patient.address.postalCode</t>
+          <t>Patient.address.state</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3348,16 +3256,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Patient.address.state</t>
+          <t>Patient.birthDate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3365,34 +3269,34 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Patient.birthDate</t>
+          <t>Patient.communication</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Patient.communication</t>
+          <t>Patient.communication.language</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -3400,7 +3304,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Patient.communication.language</t>
+          <t>Patient.gender</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3408,30 +3312,38 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:birthsex</t>
+          <t>Patient.identifier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:ethnicity</t>
+          <t>Patient.identifier.system</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3439,12 +3351,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:genderIdentity</t>
+          <t>Patient.identifier.value</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -3452,46 +3364,46 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:race</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+          <t>Patient.identifier:nhsNumber</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:sex</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Patient.identifier:nhsNumber.system</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Patient.extension:tribalAffiliation</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Patient.identifier:nhsNumber.value</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Patient.gender</t>
+          <t>Patient.name</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3508,7 +3420,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier</t>
+          <t>Patient.name.family</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3525,7 +3437,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier.system</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3533,17 +3445,21 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier.value</t>
+          <t>Patient.name.period</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3551,36 +3467,44 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+          <t>Patient.name.suffix</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber.extension:nhsNumberVerificationStatus</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Patient.telecom</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber.system</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>Patient.telecom.system</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>True</t>
@@ -3590,20 +3514,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Patient.identifier:nhsNumber.value</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Patient.telecom.use</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Patient.name</t>
+          <t>Patient.telecom.value</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3612,130 +3536,6 @@
         </is>
       </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Patient.name.family</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Patient.name.given</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Patient.name.period</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Patient.name.suffix</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom.system</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom.use</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Patient.telecom.value</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -3886,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,23 +3927,27 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.extension:medicationAdherence</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>MedicationRequest.identifier</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.identifier</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>MedicationRequest.intent</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>True</t>
@@ -4153,7 +3957,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.intent</t>
+          <t>MedicationRequest.medication[x]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4170,7 +3974,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.medication[x]</t>
+          <t>MedicationRequest.reported[x]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4178,16 +3982,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.reported[x]</t>
+          <t>MedicationRequest.requester</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4195,12 +3995,16 @@
           <t>True</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.requester</t>
+          <t>MedicationRequest.status</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4217,7 +4021,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.status</t>
+          <t>MedicationRequest.subject</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4234,28 +4038,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MedicationRequest.subject</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>MedicationRequest.substitution</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>MedicationRequest.substitution</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -5302,7 +5089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5474,14 +5261,10 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Condition.extension:assertedDate</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Condition.meta</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>True</t>
@@ -5492,7 +5275,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Condition.meta</t>
+          <t>Condition.meta.lastUpdated</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -5506,10 +5289,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Condition.meta.lastUpdated</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Condition.onset[x]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>True</t>
@@ -5520,7 +5307,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Condition.onset[x]</t>
+          <t>Condition.recordedDate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5538,25 +5325,21 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Condition.recordedDate</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Condition.recorder</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Condition.recorder</t>
+          <t>Condition.severity</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -5570,11 +5353,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Condition.severity</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>Condition.subject</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>True</t>
@@ -5584,7 +5375,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Condition.subject</t>
+          <t>Condition.verificationStatus</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5598,28 +5389,6 @@
         </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Condition.verificationStatus</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/_mustSupport.xlsx
+++ b/_mustSupport.xlsx
@@ -1828,7 +1828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,19 +1846,19 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse</t>
+          <t>QuestionnaireResponse.questionnaire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.identifier</t>
+          <t>QuestionnaireResponse.status</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1870,31 +1870,31 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.basedOn</t>
+          <t>QuestionnaireResponse.subject</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.partOf</t>
+          <t>QuestionnaireResponse.authored</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.questionnaire</t>
+          <t>QuestionnaireResponse.author</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1906,7 +1906,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.status</t>
+          <t>QuestionnaireResponse.item</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.subject</t>
+          <t>QuestionnaireResponse.item.linkId</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1930,130 +1930,10 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QuestionnaireResponse.encounter</t>
+          <t>QuestionnaireResponse.item.answer.value[x]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.authored</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.author</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.source</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.linkId</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.text</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.value[x]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.answer.item</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>QuestionnaireResponse.item.item</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -6005,7 +5885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,11 +6065,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>False</t>
@@ -6240,21 +6116,13 @@
           <t>Observation.category</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>True</t>
@@ -6265,31 +6133,11 @@
           <t>True</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>True</t>
@@ -6310,16 +6158,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>True</t>
@@ -6330,26 +6170,10 @@
           <t>True</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
           <t>True</t>
@@ -6430,40 +6254,16 @@
           <t>Observation.category:VSCat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -6476,38 +6276,14 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -6521,40 +6297,16 @@
           <t>Observation.category:VSCat.coding</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
@@ -6567,38 +6319,14 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -6612,40 +6340,16 @@
           <t>Observation.category:VSCat.coding.code</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
@@ -6654,38 +6358,14 @@
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -6699,40 +6379,16 @@
           <t>Observation.category:VSCat.coding.system</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
@@ -6741,38 +6397,14 @@
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -7271,34 +6903,18 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -7311,42 +6927,18 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -7364,40 +6956,16 @@
           <t>Observation.component.code</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -7406,38 +6974,14 @@
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -7451,40 +6995,16 @@
           <t>Observation.component.dataAbsentReason</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -7497,38 +7017,14 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -7542,40 +7038,16 @@
           <t>Observation.component.value[x]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -7588,38 +7060,14 @@
           <t>True</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -7708,7 +7156,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.dataAbsentReason</t>
+          <t>Observation.component:Concentration.valueQuantity</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -7747,7 +7195,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.valueQuantity</t>
+          <t>Observation.component:Concentration.valueQuantity.code</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -7786,7 +7234,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.valueQuantity.code</t>
+          <t>Observation.component:Concentration.valueQuantity.system</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -7825,7 +7273,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.valueQuantity.system</t>
+          <t>Observation.component:Concentration.valueQuantity.unit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -7864,7 +7312,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.valueQuantity.unit</t>
+          <t>Observation.component:Concentration.valueQuantity.value</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -7903,7 +7351,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.valueQuantity.value</t>
+          <t>Observation.component:FlowRate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -7942,7 +7390,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.value[x]</t>
+          <t>Observation.component:FlowRate.code</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -7981,7 +7429,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.value[x].code</t>
+          <t>Observation.component:FlowRate.valueQuantity</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -8020,7 +7468,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.value[x].system</t>
+          <t>Observation.component:FlowRate.valueQuantity.code</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -8059,7 +7507,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.value[x].unit</t>
+          <t>Observation.component:FlowRate.valueQuantity.system</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -8098,7 +7546,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:Concentration.value[x].value</t>
+          <t>Observation.component:FlowRate.valueQuantity.unit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -8137,7 +7585,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate</t>
+          <t>Observation.component:FlowRate.valueQuantity.value</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -8176,27 +7624,31 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.code</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>Observation.component:diastolic</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -8215,27 +7667,31 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.dataAbsentReason</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>Observation.component:diastolic.code</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -8254,27 +7710,31 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.valueQuantity</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>Observation.component:diastolic.valueQuantity</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -8293,20 +7753,20 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.valueQuantity.code</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>Observation.component:diastolic.valueQuantity.code</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -8332,20 +7792,20 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.valueQuantity.system</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>Observation.component:diastolic.valueQuantity.system</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -8371,20 +7831,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.valueQuantity.unit</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>Observation.component:diastolic.valueQuantity.unit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -8410,20 +7870,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.valueQuantity.value</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Observation.component:diastolic.valueQuantity.value</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -8449,7 +7909,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.value[x]</t>
+          <t>Observation.component:industry</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -8458,11 +7918,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -8473,7 +7929,11 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -8488,7 +7948,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.value[x].code</t>
+          <t>Observation.component:industry.code</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -8497,11 +7957,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -8512,7 +7968,11 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -8527,7 +7987,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.value[x].system</t>
+          <t>Observation.component:industry.valueCodeableConcept</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -8536,11 +7996,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -8551,7 +8007,11 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -8566,27 +8026,31 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.value[x].unit</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>Observation.component:systolic</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -8605,27 +8069,31 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:FlowRate.value[x].value</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>Observation.component:systolic.code</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -8644,7 +8112,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic</t>
+          <t>Observation.component:systolic.valueQuantity</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8687,7 +8155,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.code</t>
+          <t>Observation.component:systolic.valueQuantity.code</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8707,11 +8175,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -8730,7 +8194,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.dataAbsentReason</t>
+          <t>Observation.component:systolic.valueQuantity.system</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8769,7 +8233,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.valueQuantity</t>
+          <t>Observation.component:systolic.valueQuantity.unit</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8789,11 +8253,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -8812,7 +8272,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.valueQuantity.code</t>
+          <t>Observation.component:systolic.valueQuantity.value</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8851,14 +8311,10 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.valueQuantity.system</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.dataAbsentReason</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -8868,9 +8324,21 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -8890,14 +8358,10 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.valueQuantity.unit</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.derivedFrom</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -8908,7 +8372,11 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -8919,7 +8387,11 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -8929,15 +8401,15 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.valueQuantity.value</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Observation.effectiveDateTime</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -8952,7 +8424,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -8968,14 +8444,10 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.value[x]</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.effectivePeriod</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -8988,15 +8460,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -9011,27 +8483,47 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.value[x].code</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.effective[x]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -9040,24 +8532,36 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.value[x].system</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.encounter</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -9067,7 +8571,11 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -9089,14 +8597,10 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.value[x].unit</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.hasMember</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -9107,7 +8611,11 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -9128,14 +8636,10 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:diastolic.value[x].value</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.interpretation</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -9143,7 +8647,11 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -9167,7 +8675,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:industry</t>
+          <t>Observation.meta</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -9178,7 +8686,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -9187,11 +8699,7 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -9206,7 +8714,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:industry.code</t>
+          <t>Observation.meta.lastUpdated</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -9217,7 +8725,11 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -9226,11 +8738,7 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -9245,7 +8753,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:industry.valueCodeableConcept</t>
+          <t>Observation.performer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -9259,32 +8767,40 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AC63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:industry.value[x]</t>
+          <t>Observation.referenceRange</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -9295,7 +8811,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -9304,11 +8824,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -9323,14 +8839,10 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.specimen</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -9338,16 +8850,16 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -9366,26 +8878,46 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.code</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Observation.status</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
           <t>True</t>
@@ -9393,70 +8925,150 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.dataAbsentReason</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Observation.subject</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AC67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.valueQuantity</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Observation.valueCodeableConcept</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -9468,22 +9080,30 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
@@ -9491,35 +9111,75 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.valueQuantity.code</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.valueQuantity</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -9530,35 +9190,75 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.valueQuantity.system</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.valueQuantity.code</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
@@ -9569,35 +9269,75 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.valueQuantity.unit</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.valueQuantity.system</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
@@ -9608,35 +9348,75 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.valueQuantity.value</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.valueQuantity.unit</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -9647,39 +9427,75 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.value[x]</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.valueQuantity.value</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -9690,26 +9506,46 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.value[x].code</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.value[x]</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -9719,28 +9555,40 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="AC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.value[x].system</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.value[x]:valueCodeableConcept</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -9768,18 +9616,18 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Observation.component:systolic.value[x].unit</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
+          <t>Observation.value[x]:valueQuantity</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -9804,2107 +9652,6 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Observation.component:systolic.value[x].value</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Observation.dataAbsentReason</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Observation.derivedFrom</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Observation.effectiveDateTime</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Observation.effectivePeriod</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Observation.effective[x]</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Observation.effective[x]:effectiveDateTime</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Observation.effective[x]:effectivePeriod</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Observation.encounter</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Observation.hasMember</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Observation.interpretation</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Observation.meta</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Observation.meta.lastUpdated</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Observation.performer</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Observation.referenceRange</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>Observation.specimen</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Observation.status</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Observation.subject</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueCodeableConcept</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueQuantity</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueQuantity.code</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueQuantity.system</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueQuantity.unit</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Observation.valueQuantity.value</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueCodeableConcept</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity.code</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity.system</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity.unit</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>Observation.value[x]:valueQuantity.value</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
